--- a/flows/PALL_fund_flow_data.xlsx
+++ b/flows/PALL_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3439"/>
+  <dimension ref="A1:B3451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34825,6 +34825,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3440">
+      <c r="A3440" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3445" t="n">
+        <v>-9.3025</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3451" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
